--- a/Fase 2/Evidencias Proyecto/Evidencias de Documentación/Presupuesto detallado.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de Documentación/Presupuesto detallado.xlsx
@@ -4,7 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Presupuesto detallados" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Evidencias" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Evidencias Google" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Evidencias Agua" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Evidencias Luz" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+  <si>
+    <t>COSTOS VARIABLES</t>
+  </si>
+  <si>
+    <t>COSTOS FIJOS
+2 Personas</t>
+  </si>
   <si>
     <t>Tipo</t>
   </si>
@@ -26,18 +35,40 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Carta Gantt..</t>
+    <t>Carta Gantt.</t>
   </si>
   <si>
     <t>ClickUp.</t>
   </si>
   <si>
-    <t>Gratis</t>
-  </si>
-  <si>
     <t>https://clickup.com/</t>
   </si>
   <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.enel.cl/</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://tecnobits.com/cantidad-de-energia-que-utiliza-una-pc-un-monitor-una-impresora-y-una-notebook/?utm_source=chatgpt.com</t>
+    </r>
+  </si>
+  <si>
     <t>EDT.</t>
   </si>
   <si>
@@ -47,9 +78,38 @@
     <t>https://www.gloomaps.com/</t>
   </si>
   <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.asnsa.cl/tarifas</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.gob.cl/noticias/cuidemos-el-agua-cifras-y-recomendaciones/</t>
+    </r>
+  </si>
+  <si>
     <t>RBS.</t>
   </si>
   <si>
+    <t xml:space="preserve">Internet </t>
+  </si>
+  <si>
+    <t>https://www.clarochile.cl/personas/servicios/servicios-hogar/internet/?utm_network=g&amp;u_campaign=21629968687&amp;gad_source=1&amp;gclid=CjwKCAiA9bq6BhAKEiwAH6bqoDHR6YUyqP446_iCKE92VBsXDfNX5WiiJTe3qZU-YaHE3dSQZm2JPRoC-EIQAvD_BwE</t>
+  </si>
+  <si>
     <t>RACI.</t>
   </si>
   <si>
@@ -59,6 +119,12 @@
     <t>https://docs.google.com/spreadsheets/create?hl=es</t>
   </si>
   <si>
+    <t>Servicios en la Nube.</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/?hl=es</t>
+  </si>
+  <si>
     <t>Casos de Uso.</t>
   </si>
   <si>
@@ -68,6 +134,9 @@
     <t>https://www.drawio.com/</t>
   </si>
   <si>
+    <t>https://firebase.google.com/</t>
+  </si>
+  <si>
     <t>Modelo de Procesos.</t>
   </si>
   <si>
@@ -77,6 +146,9 @@
     <t>https://www.bizagi.com/es/plataforma/pruebe-modeler</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Desarrollo de Aplicación y Sitio Web.</t>
   </si>
   <si>
@@ -101,6 +173,9 @@
     <t>https://developer.android.com/studio?hl=es-419</t>
   </si>
   <si>
+    <t xml:space="preserve">Presupuesto </t>
+  </si>
+  <si>
     <t>Diseño.</t>
   </si>
   <si>
@@ -110,6 +185,9 @@
     <t>https://www.figma.com/</t>
   </si>
   <si>
+    <t>PlayStore</t>
+  </si>
+  <si>
     <t>Base de Datos.</t>
   </si>
   <si>
@@ -146,19 +224,7 @@
     <t>https://www.atlassian.com/es/software/jira</t>
   </si>
   <si>
-    <t>Servicios en la Nube.</t>
-  </si>
-  <si>
-    <t>Google Cloud.</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/?hl=es</t>
-  </si>
-  <si>
-    <t>Firebase.</t>
-  </si>
-  <si>
-    <t>https://firebase.google.com/</t>
+    <t>Presupuesto disponible</t>
   </si>
   <si>
     <t>Desarrollador Plataforma.</t>
@@ -170,26 +236,174 @@
     <t>https://play.google.com/intl/es/console/about/</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Costos de Google Cloud (300 créditos gratis)</t>
   </si>
   <si>
     <t>Costo x día de SQL</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">fuente : </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.asnsa.cl/tarifas</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.gob.cl/noticias/cuidemos-el-agua-cifras-y-recomendaciones/</t>
+  </si>
+  <si>
+    <t>Consumo promedio de agua por hogar</t>
+  </si>
+  <si>
+    <t>Incremento de consumo diario de litros adicionales</t>
+  </si>
+  <si>
+    <t>Consumo de litros</t>
+  </si>
+  <si>
+    <t>Valor consumo agua por 3 meses</t>
+  </si>
+  <si>
+    <t>litros</t>
+  </si>
+  <si>
+    <t>10% del baño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litros </t>
+  </si>
+  <si>
+    <t>consumo diario</t>
+  </si>
+  <si>
+    <t>2,295 m³</t>
+  </si>
+  <si>
+    <t>Precio agua potable
+aguas andinas</t>
+  </si>
+  <si>
+    <t>5% del agua potable y preparación de alimentos</t>
+  </si>
+  <si>
+    <t>consumo mensual</t>
+  </si>
+  <si>
+    <t>Valor consumo agua por 3 meses
+2 personas</t>
+  </si>
+  <si>
+    <t>($/m3)</t>
+  </si>
+  <si>
+    <t>consumo por 3 meses</t>
+  </si>
+  <si>
+    <t>4,590 m³</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Fuente: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.enel.cl/content/dam/enel-cl/es/personas/informacion-de-utilidad/tarifas-y-reglamentos/tarifas/tarifas-hist%C3%B3ricas/tarifas-de-suministro-flexibles/2.1%20Pub%20tarifas%20flexibles%20reguladas%2001.08.2024%20-%20T1.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Consumo (W) por equipo</t>
+  </si>
+  <si>
+    <t>Cálculo del consumo diario</t>
+  </si>
+  <si>
+    <t>Consumo total por 3 meses</t>
+  </si>
+  <si>
+    <t>Valor consumo luz por 3 meses</t>
+  </si>
+  <si>
+    <t>Computadora de escritorio</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>120 (W) x 8 hrs</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>0,96 kWh</t>
+  </si>
+  <si>
+    <t>122,40 kWh</t>
+  </si>
+  <si>
+    <t>Monitor led 19''</t>
+  </si>
+  <si>
+    <t>40 (W) x 8 hrs</t>
+  </si>
+  <si>
+    <t>0,32 kWh</t>
+  </si>
+  <si>
+    <t>Valor por kWh</t>
+  </si>
+  <si>
+    <t>Valor consumo Luz por 3 meses
+2 personas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz LED </t>
+  </si>
+  <si>
+    <t>10 (W) x 8 hrs</t>
+  </si>
+  <si>
+    <t>0,08 kWh</t>
+  </si>
+  <si>
+    <t>244,8 kWh</t>
+  </si>
+  <si>
+    <t>1,36 kWh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$CLP $]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$CLP $]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +414,31 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -213,15 +451,8 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
-    <font>
-      <sz val="15.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +465,18 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border/>
@@ -241,6 +484,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -261,14 +520,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -277,28 +528,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -307,47 +550,134 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -396,8 +726,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2171700" cy="2771775"/>
     <xdr:pic>
@@ -421,6 +751,14 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,293 +967,396 @@
   <cols>
     <col customWidth="1" min="5" max="5" width="29.63"/>
     <col customWidth="1" min="6" max="7" width="15.13"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col customWidth="1" min="8" max="8" width="48.63"/>
+    <col customWidth="1" min="10" max="10" width="18.25"/>
+    <col customWidth="1" min="11" max="11" width="16.0"/>
+    <col customWidth="1" min="12" max="12" width="28.63"/>
+    <col customWidth="1" min="16" max="16" width="35.0"/>
   </cols>
   <sheetData>
+    <row r="5">
+      <c r="E5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
     <row r="7">
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9">
+        <v>47001.0</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4983.0</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
+        <v>41970.0</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1945.0</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="16">
+        <f>SUM(K8:K12)</f>
+        <v>95899</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="15"/>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="19">
+        <v>500000.0</v>
+      </c>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="9">
+        <v>23266.0</v>
+      </c>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="K18" s="9">
+        <v>47001.0</v>
+      </c>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="K19" s="9">
+        <v>4983.0</v>
+      </c>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" s="7"/>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="K20" s="9">
+        <v>41970.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="22">
+        <f>500000 -K17-K18-K19-K20</f>
+        <v>382780</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="7">
+        <v>23266.0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1945.0</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" s="7"/>
-      <c r="F23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="10">
-        <v>23266.0</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="12">
-        <f>SUM(G8:G24)</f>
-        <v>25211</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="F23" s="24">
+        <f>SUM(G8:G22)</f>
+        <v>23266</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H8"/>
-    <hyperlink r:id="rId2" ref="H9"/>
-    <hyperlink r:id="rId3" ref="H10"/>
-    <hyperlink r:id="rId4" ref="H11"/>
-    <hyperlink r:id="rId5" ref="H12"/>
-    <hyperlink r:id="rId6" ref="H13"/>
-    <hyperlink r:id="rId7" ref="H14"/>
-    <hyperlink r:id="rId8" ref="H15"/>
-    <hyperlink r:id="rId9" ref="H16"/>
-    <hyperlink r:id="rId10" ref="H17"/>
-    <hyperlink r:id="rId11" ref="H18"/>
-    <hyperlink r:id="rId12" ref="H19"/>
-    <hyperlink r:id="rId13" ref="H20"/>
-    <hyperlink r:id="rId14" ref="H21"/>
-    <hyperlink r:id="rId15" ref="H22"/>
-    <hyperlink r:id="rId16" ref="H23"/>
-    <hyperlink r:id="rId17" ref="H24"/>
+    <hyperlink r:id="rId2" ref="L8"/>
+    <hyperlink r:id="rId3" ref="H9"/>
+    <hyperlink r:id="rId4" ref="L9"/>
+    <hyperlink r:id="rId5" ref="H10"/>
+    <hyperlink r:id="rId6" ref="L10"/>
+    <hyperlink r:id="rId7" ref="H11"/>
+    <hyperlink r:id="rId8" ref="L11"/>
+    <hyperlink r:id="rId9" ref="H12"/>
+    <hyperlink r:id="rId10" ref="L12"/>
+    <hyperlink r:id="rId11" ref="H13"/>
+    <hyperlink r:id="rId12" ref="H14"/>
+    <hyperlink r:id="rId13" ref="H15"/>
+    <hyperlink r:id="rId14" ref="H16"/>
+    <hyperlink r:id="rId15" ref="H17"/>
+    <hyperlink r:id="rId16" ref="H18"/>
+    <hyperlink r:id="rId17" ref="H19"/>
+    <hyperlink r:id="rId18" ref="H20"/>
+    <hyperlink r:id="rId19" ref="H21"/>
+    <hyperlink r:id="rId20" ref="H22"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -930,13 +1371,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="15" t="s">
-        <v>53</v>
+      <c r="B2" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="15" t="s">
-        <v>54</v>
+      <c r="B12" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -946,4 +1387,380 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="8.75"/>
+    <col customWidth="1" min="5" max="5" width="3.0"/>
+    <col customWidth="1" min="6" max="6" width="13.75"/>
+    <col customWidth="1" min="7" max="7" width="7.25"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="4.0"/>
+    <col customWidth="1" min="10" max="10" width="10.75"/>
+    <col customWidth="1" min="12" max="12" width="3.38"/>
+    <col customWidth="1" min="13" max="13" width="9.88"/>
+    <col customWidth="1" min="14" max="14" width="12.63"/>
+    <col customWidth="1" min="15" max="15" width="15.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="33.75" customHeight="1">
+      <c r="C6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="M6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="30">
+        <v>170.0</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="32">
+        <f>G9</f>
+        <v>25.5</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="33">
+        <f>C9</f>
+        <v>1085.63</v>
+      </c>
+      <c r="O7" s="33">
+        <f>2.295 *N7</f>
+        <v>2491.52085</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="30">
+        <v>8.5</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="32">
+        <f>K7* 30</f>
+        <v>765</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="34">
+        <v>1085.63</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="32">
+        <f>SUM(G7:G8)</f>
+        <v>25.5</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="32">
+        <f>K8 * 3</f>
+        <v>2295</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="33">
+        <f>C9</f>
+        <v>1085.63</v>
+      </c>
+      <c r="O9" s="36">
+        <f>4.59 *N9</f>
+        <v>4983.0417</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M8:O8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="9.75"/>
+    <col customWidth="1" min="4" max="4" width="4.38"/>
+    <col customWidth="1" min="5" max="5" width="4.25"/>
+    <col customWidth="1" min="8" max="8" width="5.88"/>
+    <col customWidth="1" min="10" max="10" width="3.88"/>
+    <col customWidth="1" min="12" max="12" width="2.88"/>
+    <col customWidth="1" min="15" max="15" width="15.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="30">
+        <v>120.0</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="32">
+        <f>120*8</f>
+        <v>960</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="40">
+        <f>1.36 * 90</f>
+        <v>122.4</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="34">
+        <v>192.0</v>
+      </c>
+      <c r="O6" s="42">
+        <f>122.4 *N6</f>
+        <v>23500.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="30">
+        <v>40.0</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="32">
+        <f>40 *8</f>
+        <v>320</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="30">
+        <f>10 * 8</f>
+        <v>80</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="34">
+        <v>192.0</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="34">
+        <v>192.0</v>
+      </c>
+      <c r="O8" s="43">
+        <f>244.8 *N8</f>
+        <v>47001.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="32">
+        <f>SUM(G6:G8)</f>
+        <v>1360</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="11">
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12">
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13">
+      <c r="L13" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M5:O5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Fase 2/Evidencias Proyecto/Evidencias de Documentación/Presupuesto detallado.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de Documentación/Presupuesto detallado.xlsx
@@ -461,14 +461,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -478,8 +478,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -550,74 +564,69 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -626,55 +635,55 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -704,7 +713,7 @@
     <xdr:ext cx="11858625" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -732,7 +741,7 @@
     <xdr:ext cx="2171700" cy="2771775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -974,24 +983,72 @@
     <col customWidth="1" min="16" max="16" width="35.0"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
     <row r="5">
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6">
+      <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7">
+      <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1004,6 +1061,7 @@
       <c r="H7" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1013,8 +1071,10 @@
       <c r="L7" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8">
+      <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1027,6 +1087,7 @@
       <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1097,10 @@
       <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="M8" s="1"/>
     </row>
     <row r="9">
+      <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1050,6 +1113,7 @@
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1059,8 +1123,10 @@
       <c r="L9" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10">
+      <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1073,6 +1139,7 @@
       <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1082,8 +1149,10 @@
       <c r="L10" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="M10" s="1"/>
     </row>
     <row r="11">
+      <c r="D11" s="1"/>
       <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1096,6 +1165,7 @@
       <c r="H11" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="13" t="s">
         <v>22</v>
       </c>
@@ -1105,8 +1175,10 @@
       <c r="L11" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12">
+      <c r="D12" s="1"/>
       <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
@@ -1119,13 +1191,16 @@
       <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13">
+      <c r="D13" s="1"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1138,6 +1213,7 @@
       <c r="H13" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1146,8 +1222,10 @@
         <v>95899</v>
       </c>
       <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14">
+      <c r="D14" s="1"/>
       <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1160,8 +1238,14 @@
       <c r="H14" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15">
+      <c r="D15" s="1"/>
       <c r="E15" s="17" t="s">
         <v>35</v>
       </c>
@@ -1174,9 +1258,15 @@
       <c r="H15" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="P15" s="18"/>
     </row>
     <row r="16">
+      <c r="D16" s="1"/>
       <c r="E16" s="15"/>
       <c r="F16" s="6" t="s">
         <v>38</v>
@@ -1187,15 +1277,19 @@
       <c r="H16" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="19">
         <v>500000.0</v>
       </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="P16" s="20"/>
     </row>
     <row r="17">
+      <c r="D17" s="1"/>
       <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
@@ -1208,15 +1302,19 @@
       <c r="H17" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="9">
         <v>23266.0</v>
       </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="P17" s="18"/>
     </row>
     <row r="18">
+      <c r="D18" s="1"/>
       <c r="E18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1229,15 +1327,19 @@
       <c r="H18" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="9">
         <v>47001.0</v>
       </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="P18" s="18"/>
     </row>
     <row r="19">
+      <c r="D19" s="1"/>
       <c r="E19" s="6" t="s">
         <v>48</v>
       </c>
@@ -1250,15 +1352,18 @@
       <c r="H19" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="9">
         <v>4983.0</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20">
+      <c r="D20" s="1"/>
       <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
@@ -1271,14 +1376,18 @@
       <c r="H20" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9">
         <v>41970.0</v>
       </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21">
+      <c r="D21" s="1"/>
       <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
@@ -1291,15 +1400,19 @@
       <c r="H21" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <f>500000 -K17-K18-K19-K20</f>
         <v>382780</v>
       </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22">
+      <c r="D22" s="1"/>
       <c r="E22" s="11" t="s">
         <v>58</v>
       </c>
@@ -1312,27 +1425,94 @@
       <c r="H22" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23">
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <f>SUM(G8:G22)</f>
         <v>23266</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H8"/>
@@ -1371,12 +1551,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1413,144 +1593,144 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="1">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="26" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="28" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>68</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7">
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>170.0</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>17.0</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <f>G9</f>
         <v>25.5</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="32">
         <f>C9</f>
         <v>1085.63</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <f>2.295 *N7</f>
         <v>2491.52085</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>8.5</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <f>K7* 30</f>
         <v>765</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="28" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9">
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>1085.63</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f>SUM(G7:G8)</f>
         <v>25.5</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <f>K8 * 3</f>
         <v>2295</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="32">
         <f>C9</f>
         <v>1085.63</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="35">
         <f>4.59 *N9</f>
         <v>4983.0417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="M6:O6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="M8:O8"/>
   </mergeCells>
   <hyperlinks>
@@ -1581,182 +1761,182 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="38" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="38" t="s">
         <v>85</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>120.0</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f>120*8</f>
         <v>960</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="40">
+      <c r="J6" s="27"/>
+      <c r="K6" s="39">
         <f>1.36 * 90</f>
         <v>122.4</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="33">
         <v>192.0</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="41">
         <f>122.4 *N6</f>
         <v>23500.8</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>40.0</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f>40 *8</f>
         <v>320</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="28" t="s">
         <v>96</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>10.0</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <f>10 * 8</f>
         <v>80</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="34">
+      <c r="J8" s="27"/>
+      <c r="K8" s="33">
         <v>192.0</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <v>192.0</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="42">
         <f>244.8 *N8</f>
         <v>47001.6</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f>SUM(G6:G8)</f>
         <v>1360</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="11">
-      <c r="L11" s="44"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12">
-      <c r="L12" s="44"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13">
-      <c r="L13" s="44"/>
+      <c r="L13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
